--- a/Report/Test-Report.xlsx
+++ b/Report/Test-Report.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Manage department" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Change password'!$A$10:$O$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Change password'!$A$10:$O$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Manage department'!$A$10:$O$17</definedName>
     <definedName name="ACTION" localSheetId="0">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
     <t>TEST REPORT DOCUMENT</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Change password</t>
   </si>
   <si>
-    <t>Thực hiện thay đổi mật khẩu với mật khẩu mới giống với mật khẩu cũ</t>
-  </si>
-  <si>
     <t>1. Login hệ thống với role user
 2. Click vào avatar user (ở góc phải màn hình) sau đó chọn "Xem hồ sơ của tôi"
 3. Chọn tab "Thiết lập tài khoản"
@@ -446,62 +443,97 @@
     <t>Mật khẩu cũ không đúng</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập mật khẩu cũ đúng và mật khẩu mới hợp lệ vào các trường cần thiết:
+    <t>Xác nhận mật khẩu không khớp với mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Phải vượt qua Test Case Id 1</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu cũ đúng và các trường khác đều hợp lệ</t>
+  </si>
+  <si>
+    <t>Manage Department Admin</t>
+  </si>
+  <si>
+    <t>Admin thêm chuyên khoa</t>
+  </si>
+  <si>
+    <t>Admin sửa chuyên khoa</t>
+  </si>
+  <si>
+    <t>Admin xoá chuyên khoa</t>
+  </si>
+  <si>
+    <t>Thêm chuyên khoa</t>
+  </si>
+  <si>
+    <t>Admin quản lý chuyên khoa</t>
+  </si>
+  <si>
+    <t>Cho phép admin thêm, xoá, sửa chuyên khoa</t>
+  </si>
+  <si>
+    <t>Sửa chuyên khoa</t>
+  </si>
+  <si>
+    <t>Xoá chuyên khoa</t>
+  </si>
+  <si>
+    <t>Admin xem danh sách chuyên khoa</t>
+  </si>
+  <si>
+    <t>Xem danh sách chuyên khoa</t>
+  </si>
+  <si>
+    <t>Để trống input "Nhập mật khẩu cũ", các input khác nhập đầy đủ</t>
+  </si>
+  <si>
+    <t>Để trống input "Nhập mật khẩu mới", các input khác nhập đầy đủ</t>
+  </si>
+  <si>
+    <t>Để trống input "Xác nhận mật khẩu mới", các input khác nhập đầy đủ</t>
+  </si>
+  <si>
+    <t>- Đã có tài khoản trên hệ thống
+- tài khoản đang hoạt động bình thường
+- Người dùng phải nhớ mật khẩu cũ của mình
+- Tài khoản có role là user</t>
+  </si>
+  <si>
+    <t>Test giao diện đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Test chức năng đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Mật khẩu không trùng khớp" ở dưới input mật khẩu mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập mật khẩu cũ không chính xác
+Các field đều cần đúng định dạng
 </t>
   </si>
   <si>
-    <t>Hệ thống hiển thị thông báo: "Mật khẩu cũ không đúng"</t>
-  </si>
-  <si>
-    <t>"Xác nhận mật khẩu" empty</t>
-  </si>
-  <si>
-    <t>"Mật khẩu mới" empty</t>
-  </si>
-  <si>
-    <t>"Mật khẩu cũ" empty</t>
-  </si>
-  <si>
-    <t>Xác nhận mật khẩu không khớp với mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Phải vượt qua Test Case Id 1</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu cũ đúng và các trường khác đều hợp lệ</t>
-  </si>
-  <si>
-    <t>Manage Department Admin</t>
-  </si>
-  <si>
-    <t>Admin thêm chuyên khoa</t>
-  </si>
-  <si>
-    <t>Admin sửa chuyên khoa</t>
-  </si>
-  <si>
-    <t>Admin xoá chuyên khoa</t>
-  </si>
-  <si>
-    <t>Thêm chuyên khoa</t>
-  </si>
-  <si>
-    <t>Admin quản lý chuyên khoa</t>
-  </si>
-  <si>
-    <t>Cho phép admin thêm, xoá, sửa chuyên khoa</t>
-  </si>
-  <si>
-    <t>Sửa chuyên khoa</t>
-  </si>
-  <si>
-    <t>Xoá chuyên khoa</t>
-  </si>
-  <si>
-    <t>Admin xem danh sách chuyên khoa</t>
-  </si>
-  <si>
-    <t>Xem danh sách chuyên khoa</t>
+    <t xml:space="preserve">Nhập mật khẩu cũ đúng
+Các field đều cần đúng định dạng
+</t>
+  </si>
+  <si>
+    <t>- Nhập các thông tin đúng và đổi mật khẩu
+- Sau đó logout và đăng Nhập với email và mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Thay đổi mật khẩu thành và đăng nhập với mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Thay đổi mật khẩu và đăng nhập với mật khẩu cũ</t>
+  </si>
+  <si>
+    <t>- Nhập các thông tin đúng và đổi mật khẩu
+- Sau đó logout và đăng Nhập với email và mật khẩu cũ</t>
+  </si>
+  <si>
+    <t>Test giao diện "Thay đổi mật khẩu"</t>
   </si>
   <si>
     <t>Giao diện sẽ hiển thị một component bao gồm các thành phần theo thứ tự sau:
@@ -511,162 +543,114 @@
 - Label 2: Mật khẩu mới
 - Input 2: Nhập mật khẩu mới
 - Label 3: Xác nhận mật khẩu
-- Input 3: Xác nhận mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Để trống input "Nhập mật khẩu cũ", các input khác nhập đầy đủ</t>
-  </si>
-  <si>
-    <t>Để trống input "Nhập mật khẩu mới", các input khác nhập đầy đủ</t>
-  </si>
-  <si>
-    <t>Để trống input "Xác nhận mật khẩu mới", các input khác nhập đầy đủ</t>
-  </si>
-  <si>
-    <t>Để trống các field input và bấm nút "Đổi mật khẩu"</t>
-  </si>
-  <si>
-    <t>- Đã có tài khoản trên hệ thống
-- tài khoản đang hoạt động bình thường
-- Người dùng phải nhớ mật khẩu cũ của mình
-- Tài khoản có role là user</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu cũ không đúng định dạng
-Ví dụ: abc</t>
-  </si>
-  <si>
-    <t>Mật khẩu cũ có chiều dài &lt; 6</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu cũ có chiều dài nhỏ hơn 6. Ví dụ: abc</t>
-  </si>
-  <si>
-    <t>Mật khẩu cũ có chiều dài &gt; 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập mật khẩu cũ có chiều dài nhỏ hơn 20. </t>
-  </si>
-  <si>
-    <t>Mật khẩu mới có chiều dài &lt; 6</t>
-  </si>
-  <si>
-    <t>Mật khẩu mới có chiều dài &gt; 20</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu mới có chiều dài nhỏ hơn 6. Ví dụ: abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập mật khẩu mới có chiều dài nhỏ hơn 20. </t>
-  </si>
-  <si>
-    <t>Mậtt khẩu cũ chỉ bao gồm chữ số</t>
-  </si>
-  <si>
-    <t>Mật khẩu cũ chỉ bao gồm kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Mậtt khẩu cũ chỉ bao gồm chữ cái</t>
-  </si>
-  <si>
-    <t>Mậtt khẩu mới chỉ bao gồm chữ cái</t>
-  </si>
-  <si>
-    <t>Mậtt khẩu mới chỉ bao gồm chữ số</t>
-  </si>
-  <si>
-    <t>Mật khẩu mới chỉ bao gồm kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Test giao diện đổi mật khẩu</t>
-  </si>
-  <si>
-    <t>Test chức năng đổi mật khẩu</t>
-  </si>
-  <si>
-    <t>Test thông báo lỗi khi blur input "Mật khẩu cũ" empty</t>
-  </si>
-  <si>
-    <t>Test thông báo lỗi khi blur input "Mật khẩu mới" empty</t>
-  </si>
-  <si>
-    <t>1. Focus vào ô input Mật khẩu cũ
-2. Rời khỏi ô input Mật khẩu cũ</t>
-  </si>
-  <si>
-    <t>1. Focus vào ô input Mật khẩu mới
-2. Rời khỏi ô input Mật khẩu mới</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Trường này bắt buộc" ở dưới input mật khẩu cũ</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Trường này bắt buộc" ở dưới input mật khẩu mới</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Mật khẩu không trùng khớp" ở dưới input mật khẩu mới</t>
-  </si>
-  <si>
-    <t>- Hệ thống tự động focus vào ô input "Mật khẩu cũ"</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Mật khẩu chỉ từ 6-20 kí tự" ở dưới input mật khẩu cũ</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Mật khẩu chỉ từ 6-20 kí tự" ở dưới input mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu cũ không đúng định dạng
-Ví dụ: abcabcabc</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Mật khẩu phải bao gồm chữ cái, chữ số và kí tự đặc biệt" ở dưới input mật khẩu cũ</t>
-  </si>
-  <si>
-    <t>Nhập mật khẩu cũ không đúng định dạng
-Ví dụ: 123123123</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Mật khẩu phải bao gồm chữ cái, chữ số và kí tự đặc biệt" ở dưới input mật khẩu mới</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Mật khẩu mới trùng với mật khẩu cũ" ở dưới input mật khẩu mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập mật khẩu cũ không chính xác
-Các field đều cần đúng định dạng
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập mật khẩu cũ đúng
-Các field đều cần đúng định dạng
-</t>
-  </si>
-  <si>
-    <t>- Nhập các thông tin đúng và đổi mật khẩu
-- Sau đó logout và đăng Nhập với email và mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Thay đổi mật khẩu thành và đăng nhập với mật khẩu mới</t>
-  </si>
-  <si>
-    <t>Thay đổi mật khẩu và đăng nhập với mật khẩu cũ</t>
-  </si>
-  <si>
-    <t>- Nhập các thông tin đúng và đổi mật khẩu
-- Sau đó logout và đăng Nhập với email và mật khẩu cũ</t>
-  </si>
-  <si>
-    <t>Hệ thống hiển thị thông báo: "Thay đổi mật khẩu thành công"</t>
-  </si>
-  <si>
-    <t>Hệ thống không đăng nhập được với mật khẩu cũ và hiển thị thông báo: "Đăng nhập thất bại"</t>
-  </si>
-  <si>
-    <t>Hệ thống đăng nhập thành công và hiển thị thông báo: "Đăng nhập thành công"</t>
-  </si>
-  <si>
-    <t>Test giao diện "Thay đổi mật khẩu"</t>
+- Input 3: Xác nhận mật khẩu mới
+- Button: Đổi mật khẩu
+* Các đối tượng đều có thể được nhìn thấy</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị popup thông báo màu đỏ: "Mật khẩu cũ không đúng"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị popup thông báo màu xanh: "Thay đổi mật khẩu thành công"</t>
+  </si>
+  <si>
+    <t>Hệ thống không đăng nhập được với mật khẩu cũ và hiển thị popup thông báo màu đỏ: "Đăng nhập thất bại"</t>
+  </si>
+  <si>
+    <t>Hệ thống đăng nhập thành công và hiển thị popup thông báo màu xanh: "Thay đổi mật khẩu thành công"</t>
+  </si>
+  <si>
+    <t>"Mật khẩu cũ" trống, các input khác đúng định dạng</t>
+  </si>
+  <si>
+    <t>"Mật khẩu mới" trống, các input khác đúng định dạng</t>
+  </si>
+  <si>
+    <t>"Xác nhận mật khẩu" trống, các input khác đúng định dạng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Trường này bắt buộc" ở dưới input mật khẩu cũ
+- Input nhập mật khẩu cũ được focus</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Trường này bắt buộc" ở dưới input mật khẩu mới
+- Input mật khẩu mới được focus
+- Hiển thị thông báo tin nhắn "Mật khẩu không trùng khớp" ở dưới input xác nhận mật khẩu</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Mật khẩu không trùng khớp" ở dưới input mật khẩu mới
+- Input xác nhận mật khẩu mới được focus</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ thiếu chữ cái có chiều dài từ 8 - 20</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ thiếu kí tự đặc biệt có chiều dài từ 8 - 20</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ thiếu chữ số có chiều dài từ 8 - 20</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới thiếu chữ cái có chiều dài từ 8 - 20</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới thiếu chữ số có chiều dài từ 8 - 20</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới thiếu kí tự đặc biệt có chiều dài từ 8 - 20</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ đúng định dạng có ít nhất 1 chữ số, 1 chữ cái và 1 kí tự đặc biệt, có chiều dài là 7</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ đúng định dạng có ít nhất 1 chữ số, 1 chữ cái và 1 kí tự đặc biệt, có chiều dài là 20</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Mật khẩu có chiều dài từ 8-20 kí tự bao gồm ít nhất 1 chữ cái, 1 chữ số và 1 kí tự đặc biệt." ở dưới input này</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu cũ thiếu chữ cái có chiều dài từ 8 - 20
+Ví dụ: 
+Mật khẩu cũ: 123123123@</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu cũ thiếu chữ số có chiều dài từ 8 - 20
+Ví dụ: 
+Mật khẩu cũ: abcabcabc@</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu mới thiếu chữ cái có chiều dài từ 8 - 20
+Ví dụ: 
+Mật khẩu cũ: 123123123@</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu mới thiếu chữ số có chiều dài từ 8 - 20
+Ví dụ: 
+Mật khẩu cũ: abcabcabc@</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu mới thiếu kí tự đặc biệt có chiều dài từ 8 - 20
+Ví dụ: 
+Mật khẩu cũ: abcabcabc1</t>
+  </si>
+  <si>
+    <t>Nhập mật khẩu cũ thiếu kí tự đặc biệt có chiều dài từ 8 - 20
+Ví dụ: 
+Mật khẩu cũ: abcabcabc1</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ đúng định dạng có ít nhất 1 chữ số, 1 chữ cái và 1 kí tự đặc biệt, có chiều dài là 7
+Ví dụ: 
+Mật khẩu cũ: abc@123</t>
+  </si>
+  <si>
+    <t>Mật khẩu cũ đúng định dạng có ít nhất 1 chữ số, 1 chữ cái và 1 kí tự đặc biệt, có chiều dài là 7
+Ví dụ: 
+Mật khẩu cũ: abc123@@@abc123@@@abc123@@@</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới: abcd1234@
+Mật khẩu mới: abcd123@</t>
   </si>
 </sst>
 </file>
@@ -889,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1430,6 +1414,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1439,7 +1436,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1841,12 +1838,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1903,14 +1894,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1996,6 +1981,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2827,13 +2821,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="96" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="95"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="97"/>
@@ -2844,11 +2838,11 @@
       <c r="A4" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="101" t="s">
         <v>3</v>
       </c>
@@ -2860,11 +2854,11 @@
       <c r="A5" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
       <c r="E5" s="101" t="s">
         <v>6</v>
       </c>
@@ -2876,12 +2870,12 @@
       <c r="A6" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="180" t="str">
+      <c r="B6" s="176" t="str">
         <f>B5&amp;"_"&amp;"USER"&amp;"_"&amp;"v1.0"</f>
         <v>PBL6_HEALTH_CARE_USER_v1.0</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="101" t="s">
         <v>9</v>
       </c>
@@ -3007,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3035,37 +3029,37 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186" t="s">
+      <c r="C3" s="181"/>
+      <c r="D3" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="186" t="s">
+      <c r="C4" s="181"/>
+      <c r="D4" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
     </row>
     <row r="5" spans="2:6" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10"/>
@@ -3103,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D9" s="94" t="s">
         <v>73</v>
@@ -3116,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D10" s="94" t="s">
         <v>73</v>
@@ -3129,10 +3123,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
@@ -3142,10 +3136,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="22"/>
@@ -3155,10 +3149,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="22"/>
@@ -3167,11 +3161,11 @@
       <c r="B14" s="19">
         <v>6</v>
       </c>
-      <c r="C14" s="199" t="s">
-        <v>95</v>
+      <c r="C14" s="195" t="s">
+        <v>89</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="22"/>
@@ -3249,15 +3243,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="47"/>
@@ -3273,14 +3267,14 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188" t="s">
+      <c r="D3" s="183"/>
+      <c r="E3" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="188"/>
+      <c r="F3" s="184"/>
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
@@ -3288,14 +3282,14 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188" t="s">
+      <c r="D4" s="183"/>
+      <c r="E4" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="188"/>
+      <c r="F4" s="184"/>
       <c r="G4" s="50"/>
       <c r="H4" s="51"/>
     </row>
@@ -3303,15 +3297,15 @@
       <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="187" t="str">
+      <c r="C5" s="183" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="188" t="s">
+      <c r="D5" s="183"/>
+      <c r="E5" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="188"/>
+      <c r="F5" s="184"/>
       <c r="G5" s="50"/>
       <c r="H5" s="53" t="s">
         <v>7</v>
@@ -3322,14 +3316,14 @@
       <c r="B6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="47"/>
@@ -3385,7 +3379,7 @@
       </c>
       <c r="D11" s="64">
         <f>'Change password'!B6</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E11" s="64">
         <f>'Change password'!C6</f>
@@ -3401,7 +3395,7 @@
       </c>
       <c r="H11" s="66">
         <f>'Change password'!B4</f>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3452,7 +3446,7 @@
       </c>
       <c r="D14" s="69">
         <f>SUM(D9:D13)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E14" s="69">
         <f>SUM(E9:E13)</f>
@@ -3468,7 +3462,7 @@
       </c>
       <c r="H14" s="70">
         <f>SUM(H9:H13)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3485,7 +3479,7 @@
       </c>
       <c r="E16" s="75">
         <f>(D14+E14)*100/(H14-G14)</f>
-        <v>34.285714285714285</v>
+        <v>58.620689655172413</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>35</v>
@@ -3498,7 +3492,7 @@
       </c>
       <c r="E17" s="75">
         <f>D14*100/(H14-G14)</f>
-        <v>34.285714285714285</v>
+        <v>58.620689655172413</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>35</v>
@@ -3530,11 +3524,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -3565,12 +3559,12 @@
       <c r="A2" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="192"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
       <c r="F2" s="82"/>
       <c r="G2" s="82"/>
       <c r="H2" s="9"/>
@@ -3591,12 +3585,12 @@
       <c r="A3" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="193" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="194"/>
+      <c r="B3" s="189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="9"/>
@@ -3617,12 +3611,12 @@
       <c r="A4" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="193">
-        <v>23</v>
-      </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
+      <c r="B4" s="189">
+        <v>17</v>
+      </c>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
       <c r="F4" s="82"/>
       <c r="G4" s="82"/>
       <c r="H4" s="9"/>
@@ -3676,18 +3670,18 @@
         <v>41</v>
       </c>
       <c r="B6" s="139">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="139">
-        <f>COUNTIF($F10:$F1014,C5)</f>
+        <f>COUNTIF($F10:$F1008,C5)</f>
         <v>0</v>
       </c>
       <c r="D6" s="139">
-        <f>COUNTIF($F10:$F1014,D5)</f>
+        <f>COUNTIF($F10:$F1008,D5)</f>
         <v>0</v>
       </c>
       <c r="E6" s="140">
-        <f>COUNTIF($F10:$F1014,E5)</f>
+        <f>COUNTIF($F10:$F1008,E5)</f>
         <v>0</v>
       </c>
       <c r="F6" s="146"/>
@@ -3708,18 +3702,18 @@
         <v>42</v>
       </c>
       <c r="B7" s="139">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="139">
-        <f>COUNTIF($F10:$F1014,C5)</f>
+        <f>COUNTIF($F10:$F1008,C5)</f>
         <v>0</v>
       </c>
       <c r="D7" s="139">
-        <f>COUNTIF($F10:$F1014,D5)</f>
+        <f>COUNTIF($F10:$F1008,D5)</f>
         <v>0</v>
       </c>
       <c r="E7" s="140">
-        <f>COUNTIF($F10:$F1014,E5)</f>
+        <f>COUNTIF($F10:$F1008,E5)</f>
         <v>0</v>
       </c>
       <c r="F7" s="146"/>
@@ -3739,19 +3733,19 @@
       <c r="A8" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="142">
-        <v>12</v>
+      <c r="B8" s="139">
+        <v>17</v>
       </c>
       <c r="C8" s="142">
-        <f>COUNTIF($F10:$F1014,C5)</f>
+        <f>COUNTIF($F10:$F1008,C5)</f>
         <v>0</v>
       </c>
       <c r="D8" s="142">
-        <f>COUNTIF($F10:$F1014,D5)</f>
+        <f>COUNTIF($F10:$F1008,D5)</f>
         <v>0</v>
       </c>
       <c r="E8" s="143">
-        <f>COUNTIF($F10:$F1014,E5)</f>
+        <f>COUNTIF($F10:$F1008,E5)</f>
         <v>0</v>
       </c>
       <c r="F8" s="146"/>
@@ -3787,769 +3781,580 @@
       <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:18" s="147" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="155" t="s">
+      <c r="J10" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="155" t="s">
+      <c r="K10" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="155" t="s">
+      <c r="L10" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="155" t="s">
+      <c r="M10" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="155" t="s">
+      <c r="N10" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="155" t="s">
+      <c r="O10" s="153" t="s">
         <v>51</v>
       </c>
       <c r="Q10" s="144"/>
     </row>
-    <row r="11" spans="1:18" s="159" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="156" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="Q11" s="160"/>
-    </row>
-    <row r="12" spans="1:18" s="152" customFormat="1" ht="163.19999999999999" customHeight="1">
-      <c r="A12" s="163">
+    <row r="11" spans="1:18" s="157" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="Q11" s="158"/>
+    </row>
+    <row r="12" spans="1:18" s="150" customFormat="1" ht="163.19999999999999" customHeight="1">
+      <c r="A12" s="161">
         <v>1</v>
       </c>
-      <c r="B12" s="164" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="164" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="164" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="166" t="s">
+      <c r="B12" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="166" t="s">
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="166" t="s">
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="Q12" s="153"/>
-    </row>
-    <row r="13" spans="1:18" s="152" customFormat="1" ht="31.2" customHeight="1">
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="165"/>
+      <c r="Q12" s="151"/>
+    </row>
+    <row r="13" spans="1:18" s="150" customFormat="1" ht="42" customHeight="1">
       <c r="A13" s="130">
         <v>2</v>
       </c>
-      <c r="B13" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="150" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="200" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="169"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="Q13" s="153"/>
-    </row>
-    <row r="14" spans="1:18" s="152" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A14" s="163">
+      <c r="B13" s="148" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="167"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="Q13" s="151"/>
+    </row>
+    <row r="14" spans="1:18" s="150" customFormat="1" ht="94.8" customHeight="1">
+      <c r="A14" s="161">
         <v>3</v>
       </c>
-      <c r="B14" s="150" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="150" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="200" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="Q14" s="153"/>
-    </row>
-    <row r="15" spans="1:18" s="152" customFormat="1" ht="42" customHeight="1">
+      <c r="B14" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="196" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="167"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="Q14" s="151"/>
+    </row>
+    <row r="15" spans="1:18" s="150" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A15" s="130">
         <v>4</v>
       </c>
-      <c r="B15" s="150" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="200" t="s">
+      <c r="B15" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="196" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="167"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="167"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="Q15" s="151"/>
+    </row>
+    <row r="16" spans="1:18" s="150" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A16" s="161">
+        <v>5</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="198" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="Q15" s="153"/>
-    </row>
-    <row r="16" spans="1:18" s="152" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A16" s="163">
-        <v>5</v>
-      </c>
-      <c r="B16" s="150" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="150" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="200" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="Q16" s="153"/>
-    </row>
-    <row r="17" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
+      <c r="E16" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="167"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="Q16" s="151"/>
+    </row>
+    <row r="17" spans="1:17" s="150" customFormat="1" ht="67.2" customHeight="1">
       <c r="A17" s="130">
         <v>6</v>
       </c>
-      <c r="B17" s="150" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="200" t="s">
+      <c r="B17" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="Q17" s="153"/>
-    </row>
-    <row r="18" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A18" s="163">
+      <c r="D17" s="199"/>
+      <c r="E17" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="167"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="Q17" s="151"/>
+    </row>
+    <row r="18" spans="1:17" s="150" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A18" s="161">
         <v>7</v>
       </c>
-      <c r="B18" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="200" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="Q18" s="153"/>
-    </row>
-    <row r="19" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
+      <c r="B18" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="148" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="167"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="Q18" s="151"/>
+    </row>
+    <row r="19" spans="1:17" s="150" customFormat="1" ht="67.2" customHeight="1">
       <c r="A19" s="130">
         <v>8</v>
       </c>
-      <c r="B19" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="200" t="s">
+      <c r="B19" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="199"/>
+      <c r="E19" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="167"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="Q19" s="151"/>
+    </row>
+    <row r="20" spans="1:17" s="150" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A20" s="161">
+        <v>9</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="Q19" s="153"/>
-    </row>
-    <row r="20" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A20" s="163">
-        <v>9</v>
-      </c>
-      <c r="B20" s="150" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="200" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="169"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="Q20" s="153"/>
-    </row>
-    <row r="21" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
+      <c r="D20" s="199"/>
+      <c r="E20" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="167"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="Q20" s="151"/>
+    </row>
+    <row r="21" spans="1:17" s="150" customFormat="1" ht="67.2" customHeight="1">
       <c r="A21" s="130">
         <v>10</v>
       </c>
-      <c r="B21" s="150" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="150" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="200" t="s">
+      <c r="B21" s="148" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="169"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="Q21" s="153"/>
-    </row>
-    <row r="22" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A22" s="163">
+      <c r="D21" s="199"/>
+      <c r="E21" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="167"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="Q21" s="151"/>
+    </row>
+    <row r="22" spans="1:17" s="150" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A22" s="161">
         <v>11</v>
       </c>
-      <c r="B22" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="200" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="169"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="Q22" s="153"/>
-    </row>
-    <row r="23" spans="1:17" s="152" customFormat="1" ht="67.2" customHeight="1">
+      <c r="B22" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="199"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
+      <c r="Q22" s="151"/>
+    </row>
+    <row r="23" spans="1:17" s="150" customFormat="1" ht="96.6" customHeight="1">
       <c r="A23" s="130">
         <v>12</v>
       </c>
-      <c r="B23" s="150" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="200" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="Q23" s="153"/>
-    </row>
-    <row r="24" spans="1:17" s="152" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A24" s="163">
+      <c r="B23" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="200"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="Q23" s="151"/>
+    </row>
+    <row r="24" spans="1:17" s="150" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A24" s="161">
         <v>13</v>
       </c>
-      <c r="B24" s="150" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="200" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="169"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="Q24" s="153"/>
-    </row>
-    <row r="25" spans="1:17" s="152" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A25" s="130">
+      <c r="B24" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="196" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="167"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="Q24" s="151"/>
+    </row>
+    <row r="25" spans="1:17" s="157" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="Q25" s="158"/>
+    </row>
+    <row r="26" spans="1:17" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A26" s="130">
         <v>14</v>
       </c>
-      <c r="B25" s="150" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="150" t="s">
+      <c r="B26" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="169" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="171"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:17" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A27" s="130">
+        <v>15</v>
+      </c>
+      <c r="B27" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="171"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" ht="81" customHeight="1" outlineLevel="1">
+      <c r="A28" s="130">
+        <v>16</v>
+      </c>
+      <c r="B28" s="172" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="200" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="169"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="Q25" s="153"/>
-    </row>
-    <row r="26" spans="1:17" s="152" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A26" s="163">
-        <v>15</v>
-      </c>
-      <c r="B26" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="200" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="169"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="Q26" s="153"/>
-    </row>
-    <row r="27" spans="1:17" s="152" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A27" s="130">
-        <v>16</v>
-      </c>
-      <c r="B27" s="150" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="200" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="Q27" s="153"/>
-    </row>
-    <row r="28" spans="1:17" s="152" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A28" s="163">
+      <c r="D28" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="168" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="171"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="1:17" ht="76.2" customHeight="1" outlineLevel="1">
+      <c r="A29" s="130">
         <v>17</v>
       </c>
-      <c r="B28" s="150" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="200" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="Q28" s="153"/>
-    </row>
-    <row r="29" spans="1:17" s="152" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A29" s="130">
-        <v>18</v>
-      </c>
-      <c r="B29" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="200" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="169"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="Q29" s="153"/>
-    </row>
-    <row r="30" spans="1:17" s="148" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A30" s="163">
-        <v>19</v>
-      </c>
-      <c r="B30" s="161" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="170" t="s">
+      <c r="B29" s="173" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="197" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="200" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="169" t="s">
+      <c r="F29" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169" t="s">
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169" t="s">
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="172"/>
-      <c r="Q30" s="149"/>
-    </row>
-    <row r="31" spans="1:17" s="159" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="156" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="Q31" s="160"/>
-    </row>
-    <row r="32" spans="1:17" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A32" s="130">
-        <v>20</v>
-      </c>
-      <c r="B32" s="161" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="162" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="175"/>
-      <c r="Q32" s="29"/>
-    </row>
-    <row r="33" spans="1:17" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A33" s="130">
-        <v>21</v>
-      </c>
-      <c r="B33" s="176" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="173" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="175"/>
-      <c r="Q33" s="29"/>
-    </row>
-    <row r="34" spans="1:17" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A34" s="130">
-        <v>22</v>
-      </c>
-      <c r="B34" s="176" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="201" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="175"/>
-      <c r="Q34" s="29"/>
-    </row>
-    <row r="35" spans="1:17" ht="76.2" customHeight="1" outlineLevel="1">
-      <c r="A35" s="130">
-        <v>23</v>
-      </c>
-      <c r="B35" s="177" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="201" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="173" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="154" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="154"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="168"/>
-      <c r="Q35" s="29"/>
-    </row>
-    <row r="36" spans="1:17" ht="52.2" customHeight="1"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="166"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" ht="52.2" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D16:D23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G9 G36:G163 J2:J3 J9 J36:J163 M2:M3 M9 M36:M163 I32:I35 F32:F35 F12:F30 I12:I30 L12:L30 L32:L35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G9 G30:G157 J2:J3 J9 J30:J157 M2:M3 M9 M30:M157 I26:I29 F26:F29 L26:L29 L12:L24 I12:I24 F12:F24">
       <formula1>$R$2:$R$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4605,12 +4410,12 @@
       <c r="A2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="195" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="196"/>
+      <c r="B2" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="192"/>
       <c r="F2" s="82"/>
       <c r="G2" s="76"/>
       <c r="H2" s="9"/>
@@ -4631,12 +4436,12 @@
       <c r="A3" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="198"/>
+      <c r="B3" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
       <c r="F3" s="82"/>
       <c r="G3" s="76"/>
       <c r="H3" s="9"/>
@@ -4657,13 +4462,13 @@
       <c r="A4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="197">
+      <c r="B4" s="193">
         <f>COUNTA(A12:A998)</f>
         <v>12</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
       <c r="F4" s="82"/>
       <c r="G4" s="76"/>
       <c r="H4" s="9"/>
@@ -4880,7 +4685,7 @@
     </row>
     <row r="11" spans="1:18" s="30" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B11" s="79"/>
       <c r="C11" s="80"/>
@@ -4990,7 +4795,7 @@
     </row>
     <row r="15" spans="1:18" s="30" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="79" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
@@ -5065,7 +4870,7 @@
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="79" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
@@ -5140,7 +4945,7 @@
     </row>
     <row r="21" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="79" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
